--- a/RetrospectiveSystem/document/追溯系统/MES项目_设备需求描述 V0. 1.xlsx
+++ b/RetrospectiveSystem/document/追溯系统/MES项目_设备需求描述 V0. 1.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A02 Projects\Focus\万通\MES\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30408A28-DCB3-4C95-8D17-1D9F5CF7B5FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Figkey" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
+    <t>站位编号</t>
+  </si>
+  <si>
     <t>设备名</t>
   </si>
   <si>
@@ -42,44 +32,77 @@
   </si>
   <si>
     <t>接口方式</t>
-  </si>
-  <si>
-    <t>支持工序防错</t>
-  </si>
-  <si>
-    <t>PCB板进站时将SN码发送给MES进行工序防错，MES返回判断结果给设备，当判定结果为False时设备需停机或报警；</t>
-  </si>
-  <si>
-    <t>webservice</t>
-  </si>
-  <si>
-    <t>产品过站信息</t>
-  </si>
-  <si>
-    <t>设备扫描识别PCB板二维码，传递每个PCB板的SN、工位站点、过站时间等信息传递给MES;</t>
-  </si>
-  <si>
-    <t>设备状态信息</t>
-  </si>
-  <si>
-    <t>传递每台设备ID的状态信息包括开机、停机、生产运行、待机、报警状态、时间等（每次运行状态切换时传递至MES，如待机转生产运行时传递，生产运作转设备报警时传递，或将设备实际每种状态的保持时长传递至mes）</t>
   </si>
   <si>
     <t xml:space="preserve">程序烧录及电压测试
 </t>
   </si>
   <si>
+    <t>支持工序防错</t>
+  </si>
+  <si>
+    <t>PCB板进站时将SN码发送给MES进行工序防错，MES返回判断结果给设备，当判定结果为False时设备需停机或报警；</t>
+  </si>
+  <si>
+    <t>string Firstcheck(string sn,string sTypeNumber, string sStationName)</t>
+  </si>
+  <si>
+    <t>webservice</t>
+  </si>
+  <si>
+    <t>产品过站信息</t>
+  </si>
+  <si>
+    <t>设备扫描识别PCB板二维码，传递每个PCB板的SN、工位站点、过站时间等信息传递给MES;</t>
+  </si>
+  <si>
+    <t>string InsertWIP(string sn,string sStationName,string sTestResult,string sTime)</t>
+  </si>
+  <si>
+    <t>设备状态信息</t>
+  </si>
+  <si>
+    <t>传递每台设备ID的状态信息包括开机、停机、生产运行、待机、报警状态、时间等（每次运行状态切换时传递至MES，如待机转生产运行时传递，生产运作转设备报警时传递，或将设备实际每种状态的保持时长传递至mes）</t>
+  </si>
+  <si>
     <t xml:space="preserve">接收灵敏度测试
 </t>
   </si>
   <si>
+    <t>string IsPassed(string sn, string sStationName)</t>
+  </si>
+  <si>
     <t>外壳打标及装配</t>
   </si>
   <si>
+    <t>条码绑定</t>
+  </si>
+  <si>
+    <t>PCBA码和外壳码绑定</t>
+  </si>
+  <si>
+    <t>string binding(string pcbSN,string housingSN)</t>
+  </si>
+  <si>
+    <t>设备扫描识别外壳二维码，传递每个外壳二维码、工位站点、过站时间等信息传递给MES;</t>
+  </si>
+  <si>
+    <t>string InsertWIP2(string housingSN,string sStationName,string sTestResult,string sTime)</t>
+  </si>
+  <si>
     <t>气密性测试</t>
   </si>
   <si>
+    <t>string IsPassed2(string housingSN, string sStationName)</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>成品测试</t>
     </r>
     <r>
@@ -93,46 +116,22 @@
 </t>
     </r>
   </si>
-  <si>
-    <t>站位编号</t>
-  </si>
-  <si>
-    <t>条码绑定</t>
-  </si>
-  <si>
-    <t>PCBA码和外壳码绑定</t>
-  </si>
-  <si>
-    <t>设备扫描识别外壳二维码，传递每个外壳二维码、工位站点、过站时间等信息传递给MES;</t>
-  </si>
-  <si>
-    <t>string Firstcheck(string sn,string sTypeNumber, string sStationName)</t>
-  </si>
-  <si>
-    <t>string InsertWIP(string sn,string sStationName,string sTestResult,string sTime)</t>
-  </si>
-  <si>
-    <t>string IsPassed(string sn, string sStationName)</t>
-  </si>
-  <si>
-    <t>string binding(string pcbSN,string housingSN)</t>
-  </si>
-  <si>
-    <t>string IsPassed2(string housingSN, string sStationName)</t>
-  </si>
-  <si>
-    <t>string InsertWIP2(string housingSN,string sStationName,string sTestResult,string sTime)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -156,6 +155,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -168,20 +173,157 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,13 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,8 +348,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -246,7 +574,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -257,9 +587,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -276,13 +604,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,69 +860,110 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -610,332 +1221,329 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8583333333333" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="7" width="101.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.425" customWidth="1"/>
+    <col min="6" max="7" width="101.858333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.2833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25">
+    <row r="1" ht="17.25" spans="2:8">
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="2:8">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" ht="33" spans="2:8">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="33" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="16">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" ht="33" spans="2:8">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="33">
-      <c r="B2" s="7">
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="17">
+        <v>5</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4">
+      <c r="F14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="2:8" ht="49.5">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4">
+      <c r="G15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" ht="33" spans="2:8">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" ht="33">
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:8" ht="49.5">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="2:8" ht="33">
-      <c r="B8" s="8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="15">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="2:8" ht="33">
-      <c r="B11" s="9">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" ht="49.5">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="2:8" ht="33">
-      <c r="B14" s="10">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" ht="49.5">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="8:8" ht="15" customHeight="1">
+      <c r="G16" s="8"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="8:8">
       <c r="H17"/>
     </row>
-    <row r="18" spans="8:8" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="8:8">
       <c r="H18"/>
     </row>
-    <row r="19" spans="8:8" ht="15" customHeight="1">
+    <row r="19" ht="15" customHeight="1" spans="8:8">
       <c r="H19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H2:H16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -944,8 +1552,12 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H2:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>